--- a/ERIC_WATTS.xlsx
+++ b/ERIC_WATTS.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t xml:space="preserve">Delivery</t>
   </si>
@@ -47,6 +47,9 @@
     <t xml:space="preserve">Breed</t>
   </si>
   <si>
+    <t xml:space="preserve">3bMonday</t>
+  </si>
+  <si>
     <t xml:space="preserve">2bMonday</t>
   </si>
   <si>
@@ -107,19 +110,16 @@
     <t xml:space="preserve">SR# 1121, 1673-B RYAN MCBRIDGE RD, RAEFORD, NC</t>
   </si>
   <si>
-    <t xml:space="preserve">SHP-South</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WATTS, ERIC L.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">910-852-0607</t>
+    <t xml:space="preserve">HP-East Commercial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WATTS, ERIC L</t>
   </si>
   <si>
     <t xml:space="preserve">SPG240</t>
   </si>
   <si>
-    <t xml:space="preserve">0.36319444444444443</t>
+    <t xml:space="preserve">0.34861111111111115</t>
   </si>
   <si>
     <t xml:space="preserve">BOGUE 2 FARROWING</t>
@@ -131,31 +131,43 @@
     <t xml:space="preserve">284 DONALD WARD DR, WHITEVILLE, NC</t>
   </si>
   <si>
-    <t xml:space="preserve">0.26458333333333334</t>
+    <t xml:space="preserve">0.33819444444444446</t>
   </si>
   <si>
     <t xml:space="preserve">Farm 55731 Farrowing</t>
   </si>
   <si>
+    <t xml:space="preserve">910-273-0888</t>
+  </si>
+  <si>
     <t xml:space="preserve">5549 HASTY RD, LAURINBURG, NC</t>
   </si>
   <si>
     <t xml:space="preserve">0.29236111111111113</t>
   </si>
   <si>
+    <t xml:space="preserve">Farm 55741 Farrowing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">910-277-0777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19229 MCGIRTS BRIDGE RD, LAURINBURG, NC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.31666666666666665</t>
+  </si>
+  <si>
     <t xml:space="preserve">Farm 55791 Farrowing</t>
   </si>
   <si>
+    <t xml:space="preserve">910-844-5305</t>
+  </si>
+  <si>
     <t xml:space="preserve">11044 HWY 130 W, MAXTON, NC</t>
   </si>
   <si>
-    <t xml:space="preserve">THS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Farm 57021 Farrowing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2687 E RAHYMAN RD, FAIRMONT, NC</t>
+    <t xml:space="preserve">0.2673611111111111</t>
   </si>
   <si>
     <t xml:space="preserve">LOCKLEAR, CHARLES SOW</t>
@@ -167,7 +179,7 @@
     <t xml:space="preserve">5812 S OLD WIRE RD, RED SPRINGS, NC</t>
   </si>
   <si>
-    <t xml:space="preserve">0.33611111111111108</t>
+    <t xml:space="preserve">0.3263888888888889</t>
   </si>
   <si>
     <t xml:space="preserve">SEA GRO SOW</t>
@@ -179,7 +191,7 @@
     <t xml:space="preserve">SR 1415 4835 DOLPH LEWIS RD, CERRO GORDO, NC</t>
   </si>
   <si>
-    <t xml:space="preserve">0.33749999999999997</t>
+    <t xml:space="preserve">0.29930555555555555</t>
   </si>
   <si>
     <t xml:space="preserve">WHITE FARM/HOKE LIVESTOCK</t>
@@ -525,7 +537,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
     <col min="1" max="1" width="8.71" hidden="0" customWidth="1"/>
     <col min="2" max="2" width="10.71" hidden="0" customWidth="1"/>
@@ -534,25 +546,26 @@
     <col min="5" max="5" width="17.71" hidden="0" customWidth="1"/>
     <col min="6" max="6" width="12.71" hidden="0" customWidth="1"/>
     <col min="7" max="7" width="46.71" hidden="0" customWidth="1"/>
-    <col min="8" max="8" width="12.71" hidden="0" customWidth="1"/>
-    <col min="9" max="9" width="14.71" hidden="0" customWidth="1"/>
+    <col min="8" max="8" width="18.71" hidden="0" customWidth="1"/>
+    <col min="9" max="9" width="13.71" hidden="0" customWidth="1"/>
     <col min="10" max="10" width="16.71" hidden="0" customWidth="1"/>
     <col min="11" max="11" width="6.71" hidden="0" customWidth="1"/>
     <col min="12" max="12" width="8.71" hidden="0" customWidth="1"/>
-    <col min="13" max="13" width="9.71" hidden="0" customWidth="1"/>
+    <col min="13" max="13" width="8.71" hidden="0" customWidth="1"/>
     <col min="14" max="14" width="9.71" hidden="0" customWidth="1"/>
-    <col min="15" max="15" width="11.71" hidden="0" customWidth="1"/>
+    <col min="15" max="15" width="9.71" hidden="0" customWidth="1"/>
     <col min="16" max="16" width="11.71" hidden="0" customWidth="1"/>
-    <col min="17" max="17" width="10.71" hidden="0" customWidth="1"/>
+    <col min="17" max="17" width="11.71" hidden="0" customWidth="1"/>
     <col min="18" max="18" width="10.71" hidden="0" customWidth="1"/>
-    <col min="19" max="19" width="8.71" hidden="0" customWidth="1"/>
+    <col min="19" max="19" width="10.71" hidden="0" customWidth="1"/>
     <col min="20" max="20" width="8.71" hidden="0" customWidth="1"/>
-    <col min="21" max="21" width="10.71" hidden="0" customWidth="1"/>
+    <col min="21" max="21" width="8.71" hidden="0" customWidth="1"/>
     <col min="22" max="22" width="10.71" hidden="0" customWidth="1"/>
-    <col min="23" max="23" width="5.71" hidden="0" customWidth="1"/>
-    <col min="24" max="24" width="11.71" hidden="0" customWidth="1"/>
-    <col min="25" max="25" width="19.71" hidden="0" customWidth="1"/>
-    <col min="26" max="26" width="8.71" hidden="0" customWidth="1"/>
+    <col min="23" max="23" width="10.71" hidden="0" customWidth="1"/>
+    <col min="24" max="24" width="5.71" hidden="0" customWidth="1"/>
+    <col min="25" max="25" width="11.71" hidden="0" customWidth="1"/>
+    <col min="26" max="26" width="19.71" hidden="0" customWidth="1"/>
+    <col min="27" max="27" width="8.71" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -634,78 +647,80 @@
       <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B2" t="n">
         <v>7092</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E2" t="n">
         <v>58041</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J2" t="s">
         <v>33</v>
       </c>
+      <c r="J2"/>
       <c r="K2" t="s">
         <v>34</v>
       </c>
-      <c r="L2" t="n">
-        <v>170</v>
-      </c>
-      <c r="M2"/>
+      <c r="L2"/>
+      <c r="M2" t="n">
+        <v>147</v>
+      </c>
       <c r="N2"/>
       <c r="O2"/>
-      <c r="P2" t="n">
-        <v>45</v>
-      </c>
-      <c r="Q2"/>
+      <c r="P2"/>
+      <c r="Q2" t="n">
+        <v>30</v>
+      </c>
       <c r="R2"/>
       <c r="S2"/>
-      <c r="T2" t="n">
-        <v>60</v>
-      </c>
-      <c r="U2"/>
+      <c r="T2"/>
+      <c r="U2" t="n">
+        <v>90</v>
+      </c>
       <c r="V2"/>
-      <c r="W2" t="n">
-        <v>275</v>
-      </c>
+      <c r="W2"/>
       <c r="X2" t="n">
-        <v>2.52293577981651</v>
-      </c>
-      <c r="Y2" t="s">
+        <v>267</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>2.18852459016393</v>
+      </c>
+      <c r="Z2" t="s">
         <v>35</v>
       </c>
-      <c r="Z2"/>
+      <c r="AA2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B3" t="n">
         <v>7092</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
         <v>36</v>
@@ -720,54 +735,53 @@
         <v>38</v>
       </c>
       <c r="H3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J3" t="s">
         <v>33</v>
       </c>
+      <c r="J3"/>
       <c r="K3" t="s">
         <v>34</v>
       </c>
-      <c r="L3" t="n">
-        <v>25</v>
-      </c>
-      <c r="M3"/>
+      <c r="L3"/>
+      <c r="M3" t="n">
+        <v>28</v>
+      </c>
       <c r="N3"/>
       <c r="O3"/>
-      <c r="P3" t="n">
-        <v>14</v>
-      </c>
-      <c r="Q3"/>
+      <c r="P3"/>
+      <c r="Q3" t="n">
+        <v>33</v>
+      </c>
       <c r="R3"/>
       <c r="S3"/>
-      <c r="T3" t="n">
-        <v>88</v>
-      </c>
-      <c r="U3"/>
+      <c r="T3"/>
+      <c r="U3" t="n">
+        <v>73</v>
+      </c>
       <c r="V3"/>
-      <c r="W3" t="n">
-        <v>127</v>
-      </c>
+      <c r="W3"/>
       <c r="X3" t="n">
-        <v>2.11666666666667</v>
-      </c>
-      <c r="Y3" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>4.32258064516129</v>
+      </c>
+      <c r="Z3" t="s">
         <v>39</v>
       </c>
-      <c r="Z3"/>
+      <c r="AA3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B4" t="n">
         <v>7093</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
         <v>40</v>
@@ -775,351 +789,355 @@
       <c r="E4" t="n">
         <v>55731</v>
       </c>
-      <c r="F4"/>
+      <c r="F4" t="s">
+        <v>41</v>
+      </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J4" t="s">
         <v>33</v>
       </c>
+      <c r="J4"/>
       <c r="K4" t="s">
         <v>34</v>
       </c>
-      <c r="L4" t="n">
-        <v>150</v>
-      </c>
-      <c r="M4"/>
+      <c r="L4"/>
+      <c r="M4" t="n">
+        <v>120</v>
+      </c>
       <c r="N4"/>
       <c r="O4"/>
-      <c r="P4" t="n">
-        <v>130</v>
-      </c>
-      <c r="Q4"/>
+      <c r="P4"/>
+      <c r="Q4" t="n">
+        <v>90</v>
+      </c>
       <c r="R4"/>
       <c r="S4"/>
-      <c r="T4" t="n">
-        <v>170</v>
-      </c>
-      <c r="U4"/>
+      <c r="T4"/>
+      <c r="U4" t="n">
+        <v>210</v>
+      </c>
       <c r="V4"/>
-      <c r="W4" t="n">
-        <v>450</v>
-      </c>
+      <c r="W4"/>
       <c r="X4" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z4"/>
+        <v>420</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>2.29508196721311</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5" t="n">
-        <v>7068</v>
+        <v>7093</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E5" t="n">
-        <v>55791</v>
-      </c>
-      <c r="F5"/>
+        <v>4957</v>
+      </c>
+      <c r="F5" t="s">
+        <v>45</v>
+      </c>
       <c r="G5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J5" t="s">
         <v>33</v>
       </c>
+      <c r="J5"/>
       <c r="K5" t="s">
         <v>34</v>
       </c>
-      <c r="L5" t="n">
-        <v>198</v>
-      </c>
-      <c r="M5"/>
+      <c r="L5"/>
+      <c r="M5" t="n">
+        <v>100</v>
+      </c>
       <c r="N5"/>
       <c r="O5"/>
-      <c r="P5" t="n">
-        <v>70</v>
-      </c>
-      <c r="Q5"/>
+      <c r="P5"/>
+      <c r="Q5" t="n">
+        <v>50</v>
+      </c>
       <c r="R5"/>
       <c r="S5"/>
-      <c r="T5" t="n">
-        <v>197</v>
-      </c>
-      <c r="U5"/>
+      <c r="T5"/>
+      <c r="U5" t="n">
+        <v>280</v>
+      </c>
       <c r="V5"/>
-      <c r="W5" t="n">
-        <v>465</v>
-      </c>
+      <c r="W5"/>
       <c r="X5" t="n">
-        <v>2.40932642487047</v>
-      </c>
-      <c r="Y5"/>
-      <c r="Z5"/>
+        <v>430</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>2.07729468599034</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="B6" t="n">
-        <v>7093</v>
+        <v>7094</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E6" t="n">
-        <v>57021</v>
-      </c>
-      <c r="F6"/>
+        <v>55791</v>
+      </c>
+      <c r="F6" t="s">
+        <v>49</v>
+      </c>
       <c r="G6" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J6" t="s">
         <v>33</v>
       </c>
+      <c r="J6"/>
       <c r="K6" t="s">
         <v>34</v>
       </c>
       <c r="L6"/>
-      <c r="M6"/>
-      <c r="N6" t="n">
-        <v>60</v>
-      </c>
+      <c r="M6" t="n">
+        <v>250</v>
+      </c>
+      <c r="N6"/>
       <c r="O6"/>
       <c r="P6"/>
-      <c r="Q6"/>
-      <c r="R6" t="n">
-        <v>50</v>
-      </c>
+      <c r="Q6" t="n">
+        <v>70</v>
+      </c>
+      <c r="R6"/>
       <c r="S6"/>
       <c r="T6"/>
-      <c r="U6"/>
-      <c r="V6" t="n">
-        <v>173</v>
-      </c>
-      <c r="W6" t="n">
-        <v>283</v>
-      </c>
+      <c r="U6" t="n">
+        <v>100</v>
+      </c>
+      <c r="V6"/>
+      <c r="W6"/>
       <c r="X6" t="n">
-        <v>2.46086956521739</v>
-      </c>
-      <c r="Y6"/>
-      <c r="Z6"/>
+        <v>420</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>1.81818181818182</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B7" t="n">
         <v>7092</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E7" t="n">
         <v>52011</v>
       </c>
       <c r="F7" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G7" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="H7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I7" t="s">
-        <v>32</v>
-      </c>
-      <c r="J7" t="s">
         <v>33</v>
       </c>
+      <c r="J7"/>
       <c r="K7" t="s">
         <v>34</v>
       </c>
-      <c r="L7" t="n">
-        <v>100</v>
-      </c>
-      <c r="M7"/>
+      <c r="L7"/>
+      <c r="M7" t="n">
+        <v>64</v>
+      </c>
       <c r="N7"/>
       <c r="O7"/>
-      <c r="P7" t="n">
-        <v>30</v>
-      </c>
-      <c r="Q7"/>
+      <c r="P7"/>
+      <c r="Q7" t="n">
+        <v>32</v>
+      </c>
       <c r="R7"/>
       <c r="S7"/>
-      <c r="T7" t="n">
-        <v>30</v>
-      </c>
-      <c r="U7"/>
+      <c r="T7"/>
+      <c r="U7" t="n">
+        <v>64</v>
+      </c>
       <c r="V7"/>
-      <c r="W7" t="n">
+      <c r="W7"/>
+      <c r="X7" t="n">
         <v>160</v>
       </c>
-      <c r="X7" t="n">
-        <v>2.25352112676056</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z7"/>
+      <c r="Y7" t="n">
+        <v>2.16216216216216</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B8" t="n">
-        <v>7093</v>
+        <v>7092</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E8" t="n">
         <v>52771</v>
       </c>
       <c r="F8" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="G8" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I8" t="s">
-        <v>32</v>
-      </c>
-      <c r="J8" t="s">
         <v>33</v>
       </c>
+      <c r="J8"/>
       <c r="K8" t="s">
         <v>34</v>
       </c>
-      <c r="L8" t="n">
-        <v>80</v>
-      </c>
-      <c r="M8"/>
+      <c r="L8"/>
+      <c r="M8" t="n">
+        <v>79</v>
+      </c>
       <c r="N8"/>
       <c r="O8"/>
-      <c r="P8" t="n">
-        <v>74</v>
-      </c>
-      <c r="Q8"/>
+      <c r="P8"/>
+      <c r="Q8" t="n">
+        <v>57</v>
+      </c>
       <c r="R8"/>
       <c r="S8"/>
-      <c r="T8" t="n">
-        <v>123</v>
-      </c>
-      <c r="U8"/>
+      <c r="T8"/>
+      <c r="U8" t="n">
+        <v>114</v>
+      </c>
       <c r="V8"/>
-      <c r="W8" t="n">
-        <v>277</v>
-      </c>
+      <c r="W8"/>
       <c r="X8" t="n">
-        <v>2.42982456140351</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z8"/>
+        <v>250</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>2.01612903225806</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B9" t="n">
         <v>7092</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E9" t="n">
         <v>58031</v>
       </c>
       <c r="F9" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G9" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I9" t="s">
-        <v>32</v>
-      </c>
-      <c r="J9" t="s">
         <v>33</v>
       </c>
+      <c r="J9"/>
       <c r="K9" t="s">
         <v>34</v>
       </c>
-      <c r="L9" t="n">
-        <v>170</v>
-      </c>
-      <c r="M9"/>
+      <c r="L9"/>
+      <c r="M9" t="n">
+        <v>146</v>
+      </c>
       <c r="N9"/>
       <c r="O9"/>
-      <c r="P9" t="n">
-        <v>45</v>
-      </c>
-      <c r="Q9"/>
+      <c r="P9"/>
+      <c r="Q9" t="n">
+        <v>40</v>
+      </c>
       <c r="R9"/>
       <c r="S9"/>
-      <c r="T9" t="n">
-        <v>60</v>
-      </c>
-      <c r="U9"/>
+      <c r="T9"/>
+      <c r="U9" t="n">
+        <v>75</v>
+      </c>
       <c r="V9"/>
-      <c r="W9" t="n">
-        <v>275</v>
-      </c>
+      <c r="W9"/>
       <c r="X9" t="n">
-        <v>2.06766917293233</v>
-      </c>
-      <c r="Y9" t="s">
+        <v>261</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>1.97727272727273</v>
+      </c>
+      <c r="Z9" t="s">
         <v>35</v>
       </c>
-      <c r="Z9"/>
+      <c r="AA9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
